--- a/RawData/GradData.xlsx
+++ b/RawData/GradData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valerijkutuzov/PycharmProjects/Traffic-control/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD1FBD2-FDF9-9546-9C3B-91E0157C88BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEF7BAF-2728-5549-9D6B-83FF38ACDC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1080" windowWidth="27640" windowHeight="16400" xr2:uid="{17FC39A5-9076-3742-BBB0-94AAD72C1D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -426,10 +426,10 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -437,13 +437,13 @@
         <v>1800</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -451,13 +451,13 @@
         <v>1600</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -465,13 +465,13 @@
         <v>1400</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -479,13 +479,13 @@
         <v>1150</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -493,13 +493,13 @@
         <v>950</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -513,7 +513,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -521,13 +521,13 @@
         <v>550</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -535,13 +535,13 @@
         <v>300</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
